--- a/Data/Transitions/19281973Translation.xlsx
+++ b/Data/Transitions/19281973Translation.xlsx
@@ -25,10 +25,10 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564, 893.0: 2.695599433924119e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564, 893.0: 2.8870568908995634e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -43,7 +43,7 @@
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -52,13 +52,13 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -73,19 +73,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.00531010397249111, 246.0: 0.003342886013191648, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.005333033966917777, 246.0: 0.0033428809785714603, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -100,7 +100,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 1.0, 267.0: 0.9220800789798427, 887.0: 0.003612226238579207, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{61.0: 1.0, 267.0: 0.9217986168910699, 887.0: 0.0036127940045440005, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -115,37 +115,37 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8433678599502096, 888.0: 0.006491762867531044, 11.0: 1.0}</t>
+    <t>{73.0: 0.843363874567225, 888.0: 0.0064918045262522235, 11.0: 1.0}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.981129335060326, 172.0: 0.0017220035424072874}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352, 860.0: 1.0}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9811350128021665, 172.0: 0.0017130361019852777}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899, 860.0: 1.0}</t>
   </si>
   <si>
     <t>{83.0: 0.9811509725848419, 439.0: 0.008687558175612783}</t>
@@ -154,10 +154,10 @@
     <t>{84.0: 0.6735799921564724}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 492.0: 0.0026304140311953763, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 492.0: 0.0026305364932731274, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -166,22 +166,22 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9939793120926143, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 92.0: 0.08226874328514915, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.004867508316901873, 543.0: 9.159473591698512e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9177312567148509, 91.0: 0.036469355466693706, 858.0: 0.10635135141719504, 543.0: 0.0020012752548664702}</t>
+    <t>{90.0: 0.9939563644621425, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 92.0: 0.08160476573587713, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.00453890631355781, 543.0: 8.54112408393128e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.918395234264123, 91.0: 0.036469507672753906, 858.0: 0.09917164778675883, 543.0: 0.0018661705944987617}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.35809669881787276}</t>
+    <t>{97.0: 0.9710736238304881}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.36192246120965527}</t>
   </si>
   <si>
     <t>{99.0: 0.9979395604395604, 230.0: 0.004861357952258186}</t>
@@ -199,13 +199,13 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013420294243366673, 86.0: -2.9747955320008882e-05, 543.0: -1.4387060102330408e-05, 505.0: 0.009292341386410228}</t>
+    <t>{107.0: 0.9985693012934684, 86.0: 0.002232603893188557, 543.0: 0.0011244052695832463, 505.0: 0.009292341386410228}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.9431251500439995, 914.0: 0.7690138754556746}</t>
+    <t>{109.0: 1.0, 110.0: 0.9431027384420663, 914.0: 0.7690138754556746}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -214,13 +214,13 @@
     <t>{140.0: 1.0, 762.0: 0.006328398689117414, 141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9290859197900155, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878193}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005095642723967638, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.9290859197900155, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014772}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.0050954218128254096, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -238,10 +238,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -250,10 +250,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.999453327866612, 914.0: 0.224353720584676, 110.0: 0.027553839425323783}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.998719590268886, 893.0: 0.002102567558460813}</t>
+    <t>{165.0: 0.999453327866612, 914.0: 0.224353720584676, 110.0: 0.027564697048357754}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.998719590268886, 893.0: 0.0022519043749016595}</t>
   </si>
   <si>
     <t>{167.0: 0.9994659939545818, 596.0: 0.9994659939545818, 276.0: 0.002476227037285316}</t>
@@ -265,16 +265,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.6765676889513836}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982771056394336, 81.0: 0.01836311207666031, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9026351080079558, 502.0: 0.9085761665894734, 534.0: 0.0004147510536123148, 695.0: 0.0016371070024456121, 857.0: 0.00018156654952402234, 786.0: 0.9086158707011788, 204.0: 0.03299716716722313}</t>
+    <t>{171.0: 0.6794159374403735}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982860878500139, 81.0: 0.018363233985805298, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.90266823408531, 502.0: 0.9085765084469374, 534.0: 0.0004147510536123148, 695.0: 0.0016371953374864632, 857.0: 0.00018151241209196019, 786.0: 0.9086158707011788, 204.0: 0.03299714172168639}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751, 846.0: 0.0003843689942344651}</t>
@@ -286,40 +286,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739, 277.0: 5.627730809889518e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535, 277.0: 4.9568221346656136e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988, 277.0: 5.664210183645187e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515, 277.0: 4.991613462473469e-05}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0021990452059194657, 282.0: 0.9972200158856235, 277.0: 0.003326032906596944}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.003713599073037713, 593.0: 0.0009491797243270216, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008612127279709971}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9633275045430625, 857.0: 0.005183061708912403, 174.0: 0.0025351527709197635, 502.0: 0.0025518389057615273, 534.0: 1.1648752341659236e-06, 695.0: 4.598000140612257e-06, 786.0: 0.0025519504192489974}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0022077161575020524, 282.0: 0.9971910112359551, 277.0: 0.0033252657802072005}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.0036853674878954555, 593.0: 0.0009488962327097717, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006119152019756793}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9633267616797347, 857.0: 0.005181508913200097, 174.0: 0.0025352458092539132, 502.0: 0.0025518398659068724, 534.0: 1.1648752341659236e-06, 695.0: 4.598248239563425e-06, 786.0: 0.0025519504192489974}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -331,16 +331,16 @@
     <t>{208.0: 0.999708242159008, 688.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -349,13 +349,13 @@
     <t>{214.0: 1.0, 99.0: 0.0020604395604395605, 230.0: 1.0037215317807679e-05}</t>
   </si>
   <si>
-    <t>{265.0: 0.26372514252777124}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.19626745878340957}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -364,19 +364,19 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{627.0: 1.0, 626.0: 0.31248670495639225}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.009059553658887049}</t>
-  </si>
-  <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.006742230025165162}</t>
+  </si>
+  <si>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{230.0: 0.995128604832424, 581.0: 0.0017099938141341248}</t>
@@ -391,22 +391,22 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -415,10 +415,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.006906251623514751}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9941986181700967, 46.0: 0.001474491300501327, 90.0: 7.841263987730523e-06, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821, 789.0: 6.746586150607931e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.004940095891182265}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9941947977077589, 46.0: 0.001474491300501327, 90.0: 7.875123991313905e-06, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821, 789.0: 6.7460494210165314e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996, 600.0: 1.0}</t>
+    <t>{249.0: 0.904978210564596, 600.0: 1.0}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -439,7 +439,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -463,22 +463,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -487,13 +487,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
+    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.997329918159962, 167.0: 0.0005340060454181676, 596.0: 0.0005340060454181676}</t>
   </si>
   <si>
-    <t>{277.0: 0.9182157959186211}</t>
+    <t>{277.0: 0.91800401582254}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -502,7 +502,7 @@
     <t>{280.0: 0.8135048231511254}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -511,16 +511,16 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.1554091037724622, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
-  </si>
-  <si>
-    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.9929952794274403, 750.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{288.0: 0.9978448275862069, 8.0: 1.0, 839.0: 1.0}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.15624688601630685, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
+  </si>
+  <si>
+    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.9931527240250074, 750.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{288.0: 0.9978511952726296, 8.0: 1.0, 839.0: 1.0}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -541,19 +541,19 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776, 695.0: 0.9726124982080356, 857.0: 0.0023941550953976375}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.013607056815694891}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776, 695.0: 0.9726649784458168, 857.0: 0.002393591223829053}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013609507813291451}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946238913745183e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946154538547632e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
@@ -562,31 +562,31 @@
     <t>{305.0: 1.0, 732.0: 0.0014961101137043686}</t>
   </si>
   <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.544287133983491e-05}</t>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
   </si>
   <si>
-    <t>{315.0: 0.9977799703996053, 217.0: 0.005354512670264527}</t>
+    <t>{315.0: 0.9977799703996053, 217.0: 0.00539249435108721}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -595,28 +595,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.6419033011821272, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{398.0: 1.0, 98.0: 0.6380775387903448, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
-  </si>
-  <si>
-    <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001227150119429378, 110.0: 1.5071155162217302e-05}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.017084283982261247, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9904927126157187, 907.0: 1.0}</t>
+    <t>{400.0: 0.9375071729331006, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+  </si>
+  <si>
+    <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001227150119429378, 110.0: 1.5077093968744839e-05}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.01708421624928733, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9904092777917779, 907.0: 1.0}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -625,10 +625,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{410.0: 1.0, 77.0: 0.017752861480962393, 85.0: 1.6479797151044226e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{410.0: 1.0, 77.0: 0.017752861480962393, 85.0: 1.6422628567032743e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -637,7 +637,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -646,58 +646,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133, 922.0: 0.07460424482068656, 887.0: 0.003466021689229907, 267.0: 2.886132604464845e-05}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112}</t>
+    <t>{418.0: 0.996164500319625, 922.0: 0.07459615245783441, 887.0: 0.0034665664749156328, 267.0: 2.9926246855315358e-05}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9970319608416004, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.674849362771424e-09, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9970319608416004, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.616296670307187e-09, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0, 244.0: 0.020075282308657464, 565.0: 0.0003033439621543061, 436.0: 0.00754242614707731, 564.0: 0.0001531357489516091, 84.0: 4.878686138488579e-05, 567.0: 0.014299332697807437, 841.0: 0.0027063599458728013}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
   </si>
   <si>
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5678115620279767e-06, 172.0: 2.751703539139699e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5498966598894875e-06, 172.0: 2.7060790799364145e-09}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -718,19 +718,19 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9487360394186147}</t>
+    <t>{443.0: 0.9489069323445342}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875, 32.0: 1.0, 590.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.9828856641957947, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 0.9828856617203114, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -754,22 +754,22 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -781,16 +781,16 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.6683720830288906, 270.0: 0.9996682484918197, 479.0: 0.02116481274502622, 942.0: 0.0001947682154450266, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9100470457515898, 277.0: 0.0002425405117500387}</t>
+    <t>{499.0: 0.6690568665420652, 270.0: 0.9996682484918197, 479.0: 0.020537856992426304, 942.0: 0.00018921634081314062, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9113407197519986, 277.0: 0.00024248457146551047}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -817,16 +817,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06, 174.0: 0.08824746074011176, 502.0: 0.08882829714817507, 695.0: 0.0001600541953708362, 857.0: 1.4583153689513099e-05, 786.0: 0.08883217887957225, 204.0: 0.0026372146904262293}</t>
+    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06, 174.0: 0.08825069936021956, 502.0: 0.08882833057037733, 695.0: 0.00016006283157718397, 857.0: 1.4578809956922406e-05, 786.0: 0.08883217887957225, 204.0: 0.0026372126567564013}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167, 779.0: 0.9517781796262809}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{536.0: 0.5216757544674189, 779.0: 0.9517781796262809}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -838,13 +838,13 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.980110380594447}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9800564019401017}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0, 280.0: 0.1864951768488746, 605.0: 1.0, 475.0: 0.017474965639112508, 974.0: 1.0}</t>
@@ -859,7 +859,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.9994974242995351, 48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{562.0: 0.9994974242995351, 48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -883,7 +883,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9345346989088659, 728.0: 0.09803923563612447, 752.0: 0.04612635356536104}</t>
+    <t>{580.0: 0.9345733816068407, 728.0: 0.0975784243610347, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -892,13 +892,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -910,25 +910,25 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0031784310045871716, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.006653743940318745, 171.0: 0.0028147416094494553, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.4346813410695112e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004833238028639742, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004895041072333087, 171.0: 0.0021016812133392445, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.434748134378798e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{601.0: 1.0}</t>
@@ -940,16 +940,16 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.001210493923590672}</t>
-  </si>
-  <si>
-    <t>{606.0: 0.9962446226757116}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.001210545166590409}</t>
+  </si>
+  <si>
+    <t>{606.0: 0.9962612248325914}</t>
   </si>
   <si>
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0, 682.0: 0.002717391304347826, 575.0: 5.173296010354117e-06}</t>
@@ -976,10 +976,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 246.0: 0.0010765831642270307, 789.0: 0.09253727828226349, 681.0: 0.008360022404934518, 171.0: 2.9090907025786297e-05, 90.0: 5.9822329610169285e-06, 420.0: 9.022549354333896e-09, 212.0: 6.511616408654362e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.010763735670013794, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{618.0: 0.9983347210657785, 246.0: 0.0010819868978701865, 789.0: 0.0925384034304367, 681.0: 0.008359295381328206, 171.0: 2.9213375380886083e-05, 90.0: 5.982094851430829e-06, 420.0: 9.007802115801937e-09, 212.0: 6.511637700023861e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.010608372194399853, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1003,7 +1003,7 @@
     <t>{626.0: 0.6875132950436077}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1027,10 +1027,10 @@
     <t>{678.0: 1.0, 735.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6361972769699986e-08, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.00314508968692994, 90.0: 0.0006467539555858231, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6157038346075156e-08, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.0031583300427654656, 90.0: 0.0006467390242179381, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1045,34 +1045,34 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
-  </si>
-  <si>
-    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 752.0: 0.953873646434639, 580.0: 0.06430293965328407, 728.0: 0.006596476480961698}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
+  </si>
+  <si>
+    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 752.0: 0.9537159794456196, 580.0: 0.06425943397118168, 728.0: 0.006559973228361119}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.02865989283777865, 914.0: 0.005178544615863128}</t>
-  </si>
-  <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101958029099242, 107.0: -1.9227906956870382e-05, 543.0: -2.0613039327900294e-08, 505.0: 1.331358853608483e-05}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{692.0: 1.0, 110.0: 0.028671186302468753, 914.0: 0.005178544615863128}</t>
+  </si>
+  <si>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10102088152469901, 107.0: 0.0014306987065315776, 543.0: 1.610990006128043e-06, 505.0: 1.331358853608483e-05}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1081,10 +1081,10 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.8093908462413278}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1096,7 +1096,7 @@
     <t>{575.0: 0.9980962270681897, 693.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.8953642878829138, 580.0: 0.0011623614378499624}</t>
+    <t>{728.0: 0.8958616024106042, 580.0: 0.0011671844219777149}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1108,13 +1108,13 @@
     <t>{732.0: 0.9985038898862957}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.9935082371324688}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.9935081954737477}</t>
   </si>
   <si>
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 0.9928304239401496, 228.0: 0.9928304239401496}</t>
@@ -1123,16 +1123,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.9074559751315858, 246.0: 0.0013819126524846485, 681.0: 0.06988282061991512, 171.0: 0.00024317574031305195, 90.0: 5.000648235996734e-05, 420.0: 7.542099381110275e-08, 212.0: 0.0005443168682934325}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.9074548505201423, 246.0: 0.0013803344157994305, 681.0: 0.06987674330841935, 171.0: 0.00024419947370472357, 90.0: 5.0005327878918867e-05, 420.0: 7.529771918634102e-08, 212.0: 0.0005443186480744946}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1144,7 +1144,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040398925276964663}</t>
+    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{768.0: 0.9878610297195479}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1207,22 +1207,22 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.018258760872775833, 184.0: 0.008192684577809846, 593.0: 0.0012391153462810018, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.000505985051451829, 172.0: 8.880664555316855e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.018048277346930958, 184.0: 0.008208994008638804, 593.0: 0.0012387818720972163, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005002033153683339, 172.0: 8.733419217314788e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
-  </si>
-  <si>
-    <t>{787.0: 1.0, 500.0: 0.0899529542484101, 277.0: 1.8933484705445655e-06}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
+  </si>
+  <si>
+    <t>{787.0: 1.0, 500.0: 0.08865928024800145, 277.0: 1.892911782869632e-06}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1231,19 +1231,19 @@
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.852224123182207, 303.0: 0.05243161094224925, 144.0: 5.303711803987111e-05}</t>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.852224123182207, 303.0: 0.05243161094224925, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1252,10 +1252,10 @@
     <t>{841.0: 0.9972936400541272}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1264,25 +1264,25 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
-  </si>
-  <si>
-    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1913625224321567e-05}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
+  </si>
+  <si>
+    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1998133290428898e-05}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 1.0, 229.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002205417628560592}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 91.0: 0.000333083017097464, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022774665945529964}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 91.0: 0.0003289111377593871, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1291,10 +1291,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9922024767270339, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.001206332906300768}</t>
+    <t>{857.0: 0.9922046537749547, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.00580675205403181}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1303,7 +1303,7 @@
     <t>{863.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1312,10 +1312,10 @@
     <t>{886.0: 0.3792551629775861, 531.0: 0.010622899727404714, 262.0: 0.0002349421808251973, 442.0: 2.2317016234043518e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9393755779267917, 267.0: 0.0775348260933945, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.939523126858763, 267.0: 0.07780207900823805, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1327,58 +1327,58 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.03218898503285146, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.3316279169711094, 270.0: 0.0003317515081802529, 479.0: 7.023788701009786e-06, 942.0: 6.463609234058086e-08, 769.0: 0.4943955164131305}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.46065727549643454}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.8445908962275378}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9841625534894144, 253.0: 0.0016186884103444312, 490.0: 0.04730928444707274, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 887.0: 1.5425244582994834e-06}</t>
+    <t>{895.0: 1.0, 209.0: 0.03218652840156133, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.33094313345793486, 270.0: 0.0003317515081802529, 479.0: 6.815726159460524e-06, 942.0: 6.279363832132536e-08, 769.0: 0.4943955164131305}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.4635006889360994}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.8437531139836932}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9841459227569659, 253.0: 0.0016186610571660622, 490.0: 0.047477744807121657, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 887.0: 1.5202597011177777e-06}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.2928357183343312, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.29019767916417166, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8571338813685616e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.85669648907231e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9192998557194567, 887.0: 0.04270954349163317, 267.0: 0.0003556394536596202}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.919200138766081, 887.0: 0.04271625653327697, 267.0: 0.0003687617840303886}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1396,7 +1396,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 922.0: 0.0026799879077053996, 887.0: 7.13524592938979e-05, 267.0: 5.941470586198906e-07}</t>
+    <t>{928.0: 1.0, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 922.0: 0.0027156970149411204, 887.0: 7.136367439926941e-05, 267.0: 6.160698062560191e-07}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1405,55 +1405,55 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.004549502082642697, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 702.0: 0.004462629779724754, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
-  </si>
-  <si>
-    <t>{936.0: 1.0, 702.0: 0.0001931421516271082}</t>
-  </si>
-  <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{935.0: 0.9948447126870363}</t>
+  </si>
+  <si>
+    <t>{936.0: 1.0, 702.0: 0.0001755991690463293}</t>
+  </si>
+  <si>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1471,10 +1471,10 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6493705425955395}</t>
-  </si>
-  <si>
-    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925552e-05, 152.0: 2.353316507224184e-06, 166.0: 0.00038000778598933077, 893.0: 2.926513561719916e-07}</t>
+    <t>{992.0: 0.6493798451238946}</t>
+  </si>
+  <si>
+    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925552e-05, 152.0: 2.353316507224184e-06, 166.0: 0.0003800041378228341, 893.0: 2.962995226688764e-07}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364502, 403.0: 0.003748353763549791}</t>
@@ -1489,7 +1489,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994836, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.991930277598451, 178.0: 0.0006455777921239509, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.962191397462115, 90.0: 0.013949104158149095, 246.0: 0.008365819845193214, 681.0: 0.014075080861496236, 741.0: 0.0014185976730473398}</t>
+    <t>{46.0: 0.962191397462115, 90.0: 0.013949104158149088, 246.0: 0.008365819845193214, 681.0: 0.014075080861496236, 741.0: 0.0014185976730473398}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{50.0: 0.7027624309392265, 96.0: 0.14157087340618177, 100.0: 0.15566669565459174}</t>
   </si>
   <si>
-    <t>{61.0: 0.8576026184434343, 267.0: 0.13555429418120477, 887.0: 0.0015239384391906173, 834.0: 0.005149839155708561, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
+    <t>{61.0: 0.8576026184434343, 267.0: 0.13555422637956788, 887.0: 0.0015240062408275947, 834.0: 0.005149839155708561, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -1528,16 +1528,16 @@
     <t>{73.0: 0.8707625109862649, 888.0: 0.007535418671092929, 11.0: 0.12170207034264226}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487787, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332863, 917.0: 0.22441031406671366}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699434, 172.0: 0.001461732130057138}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203809}</t>
   </si>
   <si>
     <t>{82.0: 0.7932843425038838, 914.0: 0.0009225701795882796, 110.0: 9.765832606118458e-05, 860.0: 0.2056954289904669}</t>
@@ -1549,7 +1549,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620285e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.4781030306718485e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1564,10 +1564,10 @@
     <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.97767531321528e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9594714096575209, 92.0: 0.007395204865203072, 104.0: 0.02094026447201192, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12813039795525835, 543.0: 0.0016483749352923021}</t>
+    <t>{91.0: 0.9594714096575212, 92.0: 0.0071649138056952095, 104.0: 0.021170555531519773, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12813039795525835, 543.0: 0.0016483749352923021}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1579,13 +1579,13 @@
     <t>{99.0: 0.9935367114788004, 230.0: 0.006463288521199587}</t>
   </si>
   <si>
-    <t>{107.0: 0.9938165389944863, 86.0: 0.0017257754208054286, 543.0: 0.0008154334509391148, 505.0: 0.0036422521337693497}</t>
+    <t>{107.0: 0.9938218339709328, 86.0: 0.0017257846156012954, 543.0: 0.0008101292796960921, 505.0: 0.0036422521337693497}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.6641652280938671, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
+    <t>{109.0: 0.6641652280938668, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1594,7 +1594,7 @@
     <t>{140.0: 0.35852366256693413, 762.0: 0.005155964330700646, 141.0: 0.6363203731023652}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273647}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289226}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1609,13 +1609,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.8953373976905101, 914.0: 0.09579461286779518, 110.0: 0.008867989441694457}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.41887592238992716, 596.0: 0.5805857938202688, 276.0: 0.00053828378980415}</t>
@@ -1627,13 +1627,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.978468430091143, 81.0: 0.020556721010436343, 97.0: 0.0009748488984207448}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.946144045410139, 404.0: 0.006089422657506926, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240463}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.31126578986356224, 502.0: 0.41450999623432716, 534.0: 0.00038684466796013323, 695.0: 0.000480563316131764, 857.0: 0.00013230313858445748, 786.0: 0.24934154970097577, 204.0: 0.02388295307845823}</t>
+    <t>{172.0: 0.9784684483586, 81.0: 0.020556702742979403, 97.0: 0.0009748488984207448}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921804, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240463}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.31126578986356224, 502.0: 0.41450999623432716, 534.0: 0.00038684466796013323, 695.0: 0.0004805512848061052, 857.0: 0.0001310320224687174, 786.0: 0.24934154970097577, 204.0: 0.02388423622589962}</t>
   </si>
   <si>
     <t>{175.0: 0.9813273695447163, 399.0: 0.018135092379669766, 846.0: 0.0005375380756136893}</t>
@@ -1645,10 +1645,10 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.0071717530791852065, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00018677880522148456, 277.0: 2.017756435969322e-05}</t>
+    <t>{178.0: 0.9862044958405799, 681.0: 0.0072274836249193305, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00018640320832764734, 277.0: 2.013698892882613e-05}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069355, 850.0: 0.0004038046057304886, 277.0: 4.362268733438852e-05}</t>
@@ -1657,13 +1657,13 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749617}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.7639799269406792, 182.0: 0.0036214202342036545, 282.0: 0.22999521809839887, 277.0: 0.0024034347267185468}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9698751361664371, 171.0: 0.011496757453733453, 593.0: 0.0033706896785585493, 778.0: 0.015229946623203337, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
+    <t>{182.0: 0.9971634886605053, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794806}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.7641065124158297, 182.0: 0.0035174306060558203, 282.0: 0.22997262225139564, 277.0: 0.0024034347267185468}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9698324076519498, 171.0: 0.01150971730022789, 593.0: 0.003379243143430801, 778.0: 0.015251161826322664, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990523, 543.0: 0.012701421800947868}</t>
@@ -1678,7 +1678,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9908635605244441, 857.0: 0.005364891723397515, 174.0: 0.0012028403082751575, 502.0: 0.0016018121743227231, 534.0: 1.4949036316124845e-06, 695.0: 1.8570653960238832e-06, 786.0: 0.0009635433005329334}</t>
+    <t>{204.0: 0.990916796153986, 857.0: 0.0053116561403484235, 174.0: 0.0012028403082751575, 502.0: 0.0016018121743227231, 534.0: 1.4949036316124845e-06, 695.0: 1.8570189027569208e-06, 786.0: 0.0009635433005329334}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949314, 206.0: 0.007663476366793177, 578.0: 0.0018946644382753692}</t>
@@ -1708,13 +1708,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717174, 409.0: 0.010690216128282592}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848487, 409.0: 0.01089015151515151}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897079}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1726,7 +1726,7 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690035}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628106, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524382, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655007, 581.0: 0.003279405334499344}</t>
@@ -1738,7 +1738,7 @@
     <t>{238.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.23750306546350647, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1750,10 +1750,10 @@
     <t>{244.0: 0.9749250597858431, 565.0: 0.02147659921435809, 564.0: 0.003344285635764883, 84.0: 0.00025405536403417004}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9984947897361146, 46.0: 0.0005542841993609836, 90.0: 8.035582162235106e-06, 681.0: 8.108152854861419e-06, 741.0: 8.17203601585265e-07, 618.0: 0.0009210968300832699, 789.0: 1.286829582228542e-05}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9984947897361146, 46.0: 0.0005542841993609836, 90.0: 8.035582162235099e-06, 681.0: 8.108152854861419e-06, 741.0: 8.17203601585265e-07, 618.0: 0.0009210968300832699, 789.0: 1.286829582228542e-05}</t>
   </si>
   <si>
     <t>{249.0: 0.8773903262092239, 600.0: 0.12260967379077614}</t>
@@ -1774,7 +1774,7 @@
     <t>{262.0: 0.9992897727272729, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549509, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.001397572636998897}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{272.0: 0.8427700348432055, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.04594126166338233, 85.0: 2.400902098948645e-05}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1804,7 +1804,7 @@
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{286.0: 0.7822697063992793, 909.0: 0.16270672690254548, 306.0: 0.01215683395298399, 142.0: 0.0004927091240867961, 788.0: 0.04237388612014245, 44.0: 1.3750096152363283e-07}</t>
+    <t>{286.0: 0.7826425451808656, 909.0: 0.1623338881209597, 306.0: 0.012156833952984, 142.0: 0.00049270840246167, 788.0: 0.04237388612014245, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{287.0: 0.31605461345045516, 847.0: 0.08930331364660231, 409.0: 0.4173254281949934, 750.0: 0.17731664470794906}</t>
@@ -1816,7 +1816,7 @@
     <t>{293.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.821712315603181, 298.0: 0.14696426042706018, 749.0: 4.884276072770073e-05, 695.0: 0.031081036294377695, 857.0: 0.00019354491465363398}</t>
+    <t>{297.0: 0.8217120967662809, 298.0: 0.14696447926396003, 749.0: 4.884276072770073e-05, 695.0: 0.031080258153273452, 857.0: 0.00019432305575787002}</t>
   </si>
   <si>
     <t>{299.0: 0.9836831771673026, 443.0: 0.016316822832697496}</t>
@@ -1825,7 +1825,7 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.0004333709205954403, 743.0: 1.3700028984314633e-06, 544.0: 4.0916799471302986e-10, 975.0: 1.2514541508064231e-06, 942.0: 4.685949257780303e-06, 152.0: 8.290003674011708e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -1834,22 +1834,19 @@
     <t>{305.0: 0.999240506329114, 732.0: 0.0007594936708860759}</t>
   </si>
   <si>
-    <t>{306.0: 0.9598571373775299, 142.0: 0.04011330634102033, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921263e-06}</t>
+    <t>{306.0: 0.9598571373775313, 142.0: 0.04011315122533902, 44.0: 2.9711397130311994e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879627, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.45727078249987e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452711, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.48783940909910417, 98.0: 0.4209212448061634, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -1870,25 +1867,25 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.1809349165971995, 404.0: 0.7068965163699246, 907.0: 0.11216856703287592}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9895157952821078, 77.0: 0.010478728507540653, 85.0: 5.476210351471466e-06}</t>
+    <t>{405.0: 0.17699640347484036, 404.0: 0.7108350294922836, 907.0: 0.11216856703287592}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9895157952821078, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593298}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.002009625535652811, 267.0: 6.147147729269584e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.985210466439135, 17.0: 0.014789533560864624}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.002009714946023678, 267.0: 6.057737358402695e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333117}</t>
@@ -1897,10 +1894,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540838, 91.0: 2.5036109602859136e-07, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.047962867457452284}</t>
+    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540828, 91.0: 2.5036109602859136e-07, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0007963404438087853, 436.0: 0.0029651593773165306, 564.0: 0.0026326333041735137, 84.0: 0.00019999326771240659, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
@@ -1915,7 +1912,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.0001883948756593821}</t>
+    <t>{431.0: 0.9996376811594209, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1927,7 +1924,7 @@
     <t>{434.0: 0.6910542610395957, 585.0: 0.30894573896040417}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.7964633826140964e-06, 172.0: 7.027153842396637e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -1951,25 +1948,25 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555476, 563.0: 0.03900037864445287}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022116}</t>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445287}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294475, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.38446949741860686}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458275, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.9720846452514069, 97.0: 0.011519836235458275, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1981,7 +1978,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.002730304035076804, 942.0: 6.181820456777674e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
+    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027290827911483732, 942.0: 6.303944849620883e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612405, 277.0: 0.00062015503875969}</t>
@@ -2005,7 +2002,7 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9130846649933189, 402.0: 0.0006865588905779017, 476.0: 7.2219623763109995e-06, 141.0: 1.3853451536625656e-06, 174.0: 0.026969906630374803, 502.0: 0.03591559451713939, 695.0: 4.1638844319313334e-05, 857.0: 9.351348485955915e-06, 786.0: 0.02160442468623338, 204.0: 0.0016792527820205026}</t>
+    <t>{534.0: 0.9130846649933189, 402.0: 0.0006865588905779017, 476.0: 7.2219623763109995e-06, 141.0: 1.3853451536625656e-06, 174.0: 0.026969906630374803, 502.0: 0.03591559451713939, 695.0: 4.163780185419116e-05, 857.0: 9.262170579098412e-06, 786.0: 0.02160442468623338, 204.0: 0.0016793430023924816}</t>
   </si>
   <si>
     <t>{536.0: 0.9289167165415957, 779.0: 0.07108328345840431}</t>
@@ -2059,13 +2056,13 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9497589861932447, 728.0: 0.03843705099581019, 752.0: 0.01180396281094478}</t>
+    <t>{580.0: 0.9498993501679871, 728.0: 0.03857638688533119, 752.0: 0.011524262946681183}</t>
   </si>
   <si>
     <t>{581.0: 0.9981590150730643, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773425}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773425}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2080,13 +2077,13 @@
     <t>{589.0: 0.9635931981692134, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571233, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.111922299795209e-05, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861228, 402.0: 0.0008894395353984783, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.00541750842649402, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.987839802237709, 686.0: 0.005399049051054197, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.111922299795209e-05, 492.0: 3.0314700497386945e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861228, 402.0: 0.0008894395353984777, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294204, 599.0: 0.017932683170579104}</t>
@@ -2101,7 +2098,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225909, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225909, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2128,10 +2125,10 @@
     <t>{616.0: 0.9959899749373433, 682.0: 0.003997969780970601, 575.0: 1.2055281686040737e-05}</t>
   </si>
   <si>
-    <t>{618.0: 0.7381052091430287, 246.0: 0.0016556259894786984, 789.0: 0.24771745652149604, 681.0: 0.012424607511437443, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 3.3365030699628044e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914441, 887.0: 0.013007925875422119, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{618.0: 0.7381052091430287, 246.0: 0.0016556259894786984, 789.0: 0.24771745652149593, 681.0: 0.012424607511437443, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 3.3365030699628044e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791261, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 0.9811912225705329, 894.0: 0.018808777429467082}</t>
@@ -2155,7 +2152,7 @@
     <t>{678.0: 0.5749604714675866, 735.0: 0.4250395285324134}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905325, 91.0: 5.202331295097948e-07, 202.0: 3.267379999936262e-05, 477.0: 4.37038232433548e-05, 307.0: 4.568668548426226e-08, 207.0: 1.1116985253964605e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905322, 91.0: 5.202331295097948e-07, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.568668548426226e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9922454003977792, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157586, 420.0: 1.849444563393273e-06, 212.0: 0.0026645749747314512}</t>
@@ -2176,19 +2173,19 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458073, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
-  </si>
-  <si>
-    <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 752.0: 0.4758265579730778, 580.0: 0.10970996778523741, 728.0: 0.004311959090169558}</t>
+    <t>{687.0: 0.9971296091852496, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
+  </si>
+  <si>
+    <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 752.0: 0.47578122792571, 580.0: 0.10973871074855712, 728.0: 0.004328546174217613}</t>
   </si>
   <si>
     <t>{692.0: 0.9486669212930687, 110.0: 0.039490951555331485, 914.0: 0.011842127151599699}</t>
   </si>
   <si>
-    <t>{694.0: 0.9378271162681556, 86.0: 0.06003028903169682, 107.0: 0.002133027175240028, 543.0: 1.7501637799394053e-06, 505.0: 7.817361128107671e-06}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.2549286129056617e-07, 623.0: 8.137321532264157e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{694.0: 0.9378271162681556, 86.0: 0.06003028905143161, 107.0: 0.002133038539841249, 543.0: 1.738779443938174e-06, 505.0: 7.817361128107671e-06}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063286, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782194e-07, 623.0: 8.132068258195553e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2212,16 +2209,16 @@
     <t>{575.0: 0.821341805270043, 693.0: 0.178658194729957}</t>
   </si>
   <si>
-    <t>{728.0: 0.9966110531803964, 580.0: 0.003388946819603754}</t>
+    <t>{728.0: 0.9966286307053942, 580.0: 0.0033713692946058097}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.21340928089644, 73.0: 0.10923109066691225, 888.0: 0.6773596284366478}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.21356923288861746, 73.0: 0.10920609816813451, 888.0: 0.6772246689432481}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 0.709057395905222, 228.0: 0.29094260409477785}</t>
@@ -2230,19 +2227,19 @@
     <t>{739.0: 0.9994516792323511, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.45383207699236716, 789.0: 0.5280037182878266, 246.0: 0.0005092464731919239, 681.0: 0.017518051114418, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 4.7042959923857444e-05}</t>
+    <t>{740.0: 0.45383207699236716, 789.0: 0.5280037182878264, 246.0: 0.000509246473191924, 681.0: 0.017518051114418, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 4.7042959923857444e-05}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773404}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773404}</t>
   </si>
   <si>
     <t>{743.0: 0.9994769518487787, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
   </si>
   <si>
-    <t>{749.0: 0.930835889162391, 298.0: 0.06820116783259232, 297.0: 0.0009629430050168127}</t>
+    <t>{749.0: 0.930835889162391, 298.0: 0.06820126938743354, 297.0: 0.0009628414501755321}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2251,7 +2248,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692523, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692523, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.99842555105713, 226.0: 0.0015744489428699952}</t>
@@ -2263,7 +2260,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857146}</t>
+    <t>{770.0: 0.9801712483100499, 992.0: 0.019828751689950425}</t>
   </si>
   <si>
     <t>{772.0: 0.9989726027397258, 493.0: 0.0010273972602739725}</t>
@@ -2272,19 +2269,19 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125863, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523233, 81.0: 0.00034909044494929776, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972543, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.001482998639460586, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523233, 81.0: 0.0003490900273780446, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8290401866880289, 500.0: 0.17095484553817908, 277.0: 4.967773791507788e-06}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8293916229455558, 500.0: 0.1706034092806525, 277.0: 4.967773791507788e-06}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2296,13 +2293,13 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.0001632989879273059}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002382}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7658725631537633, 536.0: 0.1115397282783606, 486.0: 0.07230418676237821, 980.0: 0.01844485800684812, 2.0: 0.014271143668772836, 840.0: 0.016429609884430787, 303.0: 0.001135289338930724, 144.0: 2.620906515422988e-06}</t>
+    <t>{835.0: 0.9827025729172753, 836.0: 0.012258072647722114, 756.0: 0.005039354435002382}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7658725631537633, 536.0: 0.1115397282783606, 486.0: 0.07230418676237821, 980.0: 0.01844485800684812, 2.0: 0.014271143668772836, 840.0: 0.016429609884430787, 303.0: 0.0011352782248321624, 144.0: 2.632020613984921e-06}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
@@ -2323,25 +2320,28 @@
     <t>{848.0: 0.8067879325643301, 634.0: 0.1932120674356699}</t>
   </si>
   <si>
-    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313654, 217.0: 1.5409225696039546e-05}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235838}</t>
+    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313663, 217.0: 1.5409225696039546e-05}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.902503293807642, 277.0: 0.09749670619235838}</t>
   </si>
   <si>
     <t>{851.0: 0.3205052339930986, 7.0: 0.5642747332529261, 229.0: 0.11522003275397538}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.815322743229628, 91.0: 0.0009668851259615174, 202.0: 0.06072625797167796, 680.0: 0.0019916987452363753, 477.0: 0.10462810023960326, 307.0: 8.491150244668037e-05, 207.0: 0.004399820531246505, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.992811225258056, 695.0: 0.0071887747419441045}</t>
+    <t>{852.0: 0.9898358092259586, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8153227432296275, 91.0: 0.0009668851259615174, 202.0: 0.06072625797167796, 680.0: 0.0019916987452363753, 477.0: 0.10476413795959924, 307.0: 8.491150244668037e-05, 207.0: 0.0042637828112505214, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.99733527131783, 976.0: 0.002664728682170542}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -2350,7 +2350,7 @@
     <t>{886.0: 0.9902604522799239, 531.0: 0.009534025984806517, 262.0: 0.00019460907675969045, 442.0: 1.0912658509889185e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9765534342309957, 267.0: 0.022896816024526805, 619.0: 0.0005377841363674719, 861.0: 1.1956872267456317e-05, 253.0: 8.735842383070054e-09}</t>
+    <t>{887.0: 0.9765969030600309, 267.0: 0.022853368449161467, 619.0: 0.000537728739145359, 861.0: 1.1990990892844979e-05, 253.0: 8.760769883093081e-09}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621839, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2365,7 +2365,7 @@
     <t>{895.0: 0.8779441895833829, 209.0: 0.014142491692487508, 896.0: 0.10598629517548437, 400.0: 0.0009128006283056072, 432.0: 0.0010142229203395632}</t>
   </si>
   <si>
-    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795438, 270.0: 1.585958775157078e-05, 479.0: 1.984712730947427e-07, 942.0: 4.493689202145121e-09, 769.0: 0.023047494634692543}</t>
+    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795438, 270.0: 1.585958775157078e-05, 479.0: 1.983824984256506e-07, 942.0: 4.582463871237358e-09, 769.0: 0.023047494634692543}</t>
   </si>
   <si>
     <t>{906.0: 0.9548528279401363, 477.0: 0.037800982895492344, 202.0: 0.001492242297122392, 307.0: 0.0003443049939703535, 680.0: 0.00548082869511441, 481.0: 2.8813178163827512e-05}</t>
@@ -2377,13 +2377,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377265e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.8371050838847068, 253.0: 0.0006115995811703315, 490.0: 0.0071431722448936025, 225.0: 0.14979707582625534, 779.0: 0.004742289697704957, 493.0: 0.0005480119344821288, 619.0: 5.206537478400955e-05, 887.0: 7.014560029937706e-07}</t>
-  </si>
-  <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.2218090033472266}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.41172636422495e-05, 502.0: 2.1081030824663273e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.8370975353923293, 253.0: 0.0006115940661461547, 490.0: 0.0071507295578907394, 225.0: 0.14979707582625534, 779.0: 0.004742289697704957, 493.0: 0.0005480119344821288, 619.0: 5.206001152217966e-05, 887.0: 7.035136692186443e-07}</t>
+  </si>
+  <si>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116217}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2392,19 +2392,19 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005083434427885525, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143607, 297.0: 0.005859444871573599, 695.0: 0.0050833071596296815, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304319, 686.0: 0.013476598069568387}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854247, 887.0: 0.06821723107911949, 267.0: 0.00020866643545552275}</t>
-  </si>
-  <si>
-    <t>{925.0: 0.995852708307151, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{928.0: 0.9637505786161319, 3.0: 0.02574906126073637, 418.0: 0.006621187181332206, 922.0: 0.003789927314334858, 887.0: 8.897347075718955e-05, 267.0: 2.721567073204135e-07}</t>
+    <t>{922.0: 0.9315741024854247, 887.0: 0.06822026613606025, 267.0: 0.00020563137851477045}</t>
+  </si>
+  <si>
+    <t>{925.0: 0.995852708307151, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{928.0: 0.9635564388685308, 3.0: 0.0258921116010738, 418.0: 0.006657971554561826, 922.0: 0.003804232348368598, 887.0: 8.897742928124124e-05, 267.0: 2.681981832687523e-07}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2413,7 +2413,7 @@
     <t>{932.0: 0.9982325910215623, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.7432543517296267, 702.0: 0.123288866671474, 249.0: 0.10310508213310642, 299.0: 0.03035169946579281}</t>
+    <t>{933.0: 0.7437014476261457, 702.0: 0.12326960256962333, 249.0: 0.10267725033843796, 299.0: 0.03035169946579281}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154563, 5.0: 0.006498027384543978}</t>
@@ -2425,25 +2425,25 @@
     <t>{936.0: 0.9836341995635787, 702.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655216, 593.0: 0.0036190543506065156, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342055, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16133961771190689}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.1099318387297291, 848.0: 0.1855094754451809}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382855, 615.0: 0.045862412761714856}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211057, 615.0: 0.04623115577889449}</t>
   </si>
   <si>
     <t>{973.0: 0.9777202072538861, 565.0: 0.022279792746113983}</t>
@@ -2455,7 +2455,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601314, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{978.0: 0.9504155918601314, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978184, 561.0: 0.013490241102181402}</t>
@@ -4934,7 +4934,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>611</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4945,7 +4945,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5077,7 +5077,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5231,7 +5231,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5253,7 +5253,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5264,7 +5264,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5275,7 +5275,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5297,7 +5297,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5319,7 +5319,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5341,7 +5341,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5374,7 +5374,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5385,7 +5385,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5396,7 +5396,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5407,7 +5407,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5429,7 +5429,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5451,7 +5451,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5473,7 +5473,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5517,7 +5517,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5539,7 +5539,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5550,7 +5550,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5561,7 +5561,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5572,7 +5572,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5594,7 +5594,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5616,7 +5616,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5649,7 +5649,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5671,7 +5671,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5693,7 +5693,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5704,7 +5704,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5715,7 +5715,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5726,7 +5726,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5748,7 +5748,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5770,7 +5770,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5781,7 +5781,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5792,7 +5792,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5836,7 +5836,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5869,7 +5869,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5880,7 +5880,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5891,7 +5891,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5924,7 +5924,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5935,7 +5935,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6177,7 +6177,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6188,7 +6188,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6199,7 +6199,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6210,7 +6210,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6221,7 +6221,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6232,7 +6232,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6243,7 +6243,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6265,7 +6265,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6298,7 +6298,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6309,7 +6309,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6331,7 +6331,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6342,7 +6342,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6364,7 +6364,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6419,7 +6419,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6430,7 +6430,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6441,7 +6441,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6496,7 +6496,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6507,7 +6507,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6518,7 +6518,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6529,7 +6529,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6540,7 +6540,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6551,7 +6551,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6573,7 +6573,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6584,7 +6584,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6694,7 +6694,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6716,7 +6716,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6727,7 +6727,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6815,7 +6815,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6837,7 +6837,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6848,7 +6848,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6859,7 +6859,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6870,7 +6870,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6892,7 +6892,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6903,7 +6903,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7002,7 +7002,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7123,7 +7123,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7134,7 +7134,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7222,7 +7222,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7233,7 +7233,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7244,7 +7244,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7266,7 +7266,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7277,7 +7277,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7288,7 +7288,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7299,7 +7299,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7310,7 +7310,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7321,7 +7321,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7332,7 +7332,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7343,7 +7343,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7354,7 +7354,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7387,7 +7387,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7398,7 +7398,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>578</v>
+        <v>775</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -8146,7 +8146,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
